--- a/branches/mpd-r5/ValueSet-all-units-vs.xlsx
+++ b/branches/mpd-r5/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/ValueSet-all-units-vs.xlsx
+++ b/branches/mpd-r5/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/ValueSet-all-units-vs.xlsx
+++ b/branches/mpd-r5/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/ValueSet-all-units-vs.xlsx
+++ b/branches/mpd-r5/ValueSet-all-units-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/ValueSet/all-units-vs</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/ValueSet/all-units-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-08T20:50:12+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/ValueSet-all-units-vs.xlsx
+++ b/branches/mpd-r5/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T15:50:31+00:00</t>
+    <t>2022-11-11T20:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/ValueSet-all-units-vs.xlsx
+++ b/branches/mpd-r5/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/ValueSet-all-units-vs.xlsx
+++ b/branches/mpd-r5/ValueSet-all-units-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
